--- a/biology/Médecine/Fred_Hutchinson_Cancer_Research_Center/Fred_Hutchinson_Cancer_Research_Center.xlsx
+++ b/biology/Médecine/Fred_Hutchinson_Cancer_Research_Center/Fred_Hutchinson_Cancer_Research_Center.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fred Hutchinson Cancer Center , anciennement connu sous le nom de Fred Hutchinson Cancer Research Center et également connu sous le nom de Fred Hutch ou The Hutch , est un institut de recherche en cancérologie créé en 1975 à Seattle, État de Washington aux États-Unis.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre est né de la Pacific Northwest Research Foundation (PNRF), fondée en 1956 par le docteur William B. Hutchinson (1909–1997). La Fondation se consacrait à l'étude de la chirurgie cardiaque, du cancer et des maladies du système endocrinien. Le frère cadet de W.B. Hutchinson, Fred (1919-1964), était un célèbre lanceur et un entraîneur de la Major League Baseball décédé d'un cancer du poumon à 45 ans. L'année suivante, William Hutchinson a créé le Fred Hutchinson Cancer Research Center en tant que division de la PNRF[1]. En 1972, la PNRF a reçu un financement fédéral en vertu du National Cancer Act de 1971 pour créer à Seattle l'un des 15 nouveaux centres de cancérologie menant des recherches fondamentales  prévues par cette loi. Le Fred Hutchinson Cancer Research Center est devenu indépendant en 1972 et son bâtiment a ouvert ses portes en 1975[1]. Le centre a été nommé Comprehensive Cancer Center (centre de cancérologie menant des recherches à la fois en biologie fondamentale, en clinique et  en sciences humaines appliquées à la cancérologie) par le National Cancer Institute en 1976[2].
-En 2001, le centre a été mis en cause pour des atteintes à l'éthique dans la conduite d'essais cliniques[3].
-En 2022, le Fred Hutchinson Cancer Research Center et la Seattle Cancer Care Alliance (en) ont fusionné pour former le Fred Hutchinson Cancer Center , un centre unifié de recherche et de soins sur le cancer pour adultes qui est cliniquement intégré à la faculté de médecine de l'Université de Washington[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre est né de la Pacific Northwest Research Foundation (PNRF), fondée en 1956 par le docteur William B. Hutchinson (1909–1997). La Fondation se consacrait à l'étude de la chirurgie cardiaque, du cancer et des maladies du système endocrinien. Le frère cadet de W.B. Hutchinson, Fred (1919-1964), était un célèbre lanceur et un entraîneur de la Major League Baseball décédé d'un cancer du poumon à 45 ans. L'année suivante, William Hutchinson a créé le Fred Hutchinson Cancer Research Center en tant que division de la PNRF. En 1972, la PNRF a reçu un financement fédéral en vertu du National Cancer Act de 1971 pour créer à Seattle l'un des 15 nouveaux centres de cancérologie menant des recherches fondamentales  prévues par cette loi. Le Fred Hutchinson Cancer Research Center est devenu indépendant en 1972 et son bâtiment a ouvert ses portes en 1975. Le centre a été nommé Comprehensive Cancer Center (centre de cancérologie menant des recherches à la fois en biologie fondamentale, en clinique et  en sciences humaines appliquées à la cancérologie) par le National Cancer Institute en 1976.
+En 2001, le centre a été mis en cause pour des atteintes à l'éthique dans la conduite d'essais cliniques.
+En 2022, le Fred Hutchinson Cancer Research Center et la Seattle Cancer Care Alliance (en) ont fusionné pour former le Fred Hutchinson Cancer Center , un centre unifié de recherche et de soins sur le cancer pour adultes qui est cliniquement intégré à la faculté de médecine de l'Université de Washington.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Prix Nobel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le centre a été honoré de trois lauréats du prix Nobel de physiologie ou médecine :
-E. Donnall Thomas , a reçu le prix en 1990 pour son travail dans la transplantation de moelle osseuse[5] ;
-Leland H. Hartwell , a reçu le prix en 2001 pour ses découvertes concernant les mécanismes qui contrôlent la division cellulaire[6] ;
-Linda B. Buck , a reçu le prix en 2004 pour ases travaux sur le système olfactif[7].</t>
+E. Donnall Thomas , a reçu le prix en 1990 pour son travail dans la transplantation de moelle osseuse ;
+Leland H. Hartwell , a reçu le prix en 2001 pour ses découvertes concernant les mécanismes qui contrôlent la division cellulaire ;
+Linda B. Buck , a reçu le prix en 2004 pour ases travaux sur le système olfactif.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Campus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le campus principal de l'institut se compose de 13 bâtiments répartis sur 6,1 ha dans le quartier South Lake Union de Seattle[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le campus principal de l'institut se compose de 13 bâtiments répartis sur 6,1 ha dans le quartier South Lake Union de Seattle.
 </t>
         </is>
       </c>
